--- a/biology/Zoologie/Eremias_strauchi/Eremias_strauchi.xlsx
+++ b/biology/Zoologie/Eremias_strauchi/Eremias_strauchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremias strauchi est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremias strauchi est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Arménie, en Azerbaïdjan, dans le nord-est de la Turquie, dans le nord de l'Iran et dans le sud du Turkménistan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Arménie, en Azerbaïdjan, dans le nord-est de la Turquie, dans le nord de l'Iran et dans le sud du Turkménistan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 janvier 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 janvier 2013) :
 Eremias strauchi kopetdaghica Szczerbak, 1972
 Eremias strauchi strauchi Kessler, 1878</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alexander Strauch[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alexander Strauch.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kessler, 1878 : Путешествие по Закавказскому краю в 1875 году с зоологическою целью (A zoological expedition to the Transcaucasian Territory in 1875). Труды Санкт-Петербургского Общества Естествоиспытателей (Transactions of the St. Petersburg Society of Naturalists), vol. 8, p. 1-200.
 Shcherbak, 1972 : New subspecies of Eremias strauchi kopetdaghica ssp. n. (Sauria, Reptilia) from Turkmenia. Vestnik Zoologii, vol. 1972, n. 2, p. 83-86.</t>
